--- a/data/trans_orig/P05A06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>326749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>308233</v>
+        <v>305809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>343799</v>
+        <v>344198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7224477724073683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6815100400179701</v>
+        <v>0.676149292722753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7601472158833577</v>
+        <v>0.76102959489859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>299</v>
@@ -764,19 +764,19 @@
         <v>304553</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>285710</v>
+        <v>286146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>323008</v>
+        <v>321157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7128276273463662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6687238936236221</v>
+        <v>0.6697427215251915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7560220433419826</v>
+        <v>0.7516884845089421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>618</v>
@@ -785,19 +785,19 @@
         <v>631302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>605432</v>
+        <v>603036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>660274</v>
+        <v>655986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7177746063687469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6883614054914039</v>
+        <v>0.6856362574761882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7507149911478986</v>
+        <v>0.7458393670262953</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>111514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95324</v>
+        <v>93812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129444</v>
+        <v>131916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2465599492304119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.210762481227966</v>
+        <v>0.2074199768745169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2862038476459286</v>
+        <v>0.2916682093403752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -835,19 +835,19 @@
         <v>108985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91098</v>
+        <v>92090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128441</v>
+        <v>127038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.255086623247569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2132205029604381</v>
+        <v>0.2155434278309686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3006238101758269</v>
+        <v>0.297340263504816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -856,19 +856,19 @@
         <v>220499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193346</v>
+        <v>196027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245639</v>
+        <v>248517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2507019411844525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2198291925448708</v>
+        <v>0.2228772625478227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2792854928546335</v>
+        <v>0.2825574675091386</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>14017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7685</v>
+        <v>7611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23630</v>
+        <v>22457</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03099227836221972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01699164096323912</v>
+        <v>0.0168282785507996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05224659147584031</v>
+        <v>0.04965309014006401</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -906,19 +906,19 @@
         <v>13709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7638</v>
+        <v>7921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22103</v>
+        <v>23334</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03208574940606475</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01787763283021155</v>
+        <v>0.01853989571577344</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05173466628663336</v>
+        <v>0.05461430689820668</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -927,19 +927,19 @@
         <v>27726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18534</v>
+        <v>18202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39812</v>
+        <v>38248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03152345244680054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02107308193466049</v>
+        <v>0.02069468763190485</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04526564200957017</v>
+        <v>0.04348735403909745</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>491579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>464639</v>
+        <v>467764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>513559</v>
+        <v>513870</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7194530560018569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6800238000478847</v>
+        <v>0.6845981380924553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7516209022893116</v>
+        <v>0.7520762139835996</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -1052,19 +1052,19 @@
         <v>431999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410417</v>
+        <v>408684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>454842</v>
+        <v>453111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7078991246347852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6725330204666731</v>
+        <v>0.669693273054553</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7453310379614064</v>
+        <v>0.7424945245043256</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>878</v>
@@ -1073,19 +1073,19 @@
         <v>923579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889177</v>
+        <v>888552</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>959075</v>
+        <v>956047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7140021712317742</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6874065830279813</v>
+        <v>0.6869235706282085</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7414433066066255</v>
+        <v>0.7391028258832103</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>165332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>145030</v>
+        <v>145547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>191990</v>
+        <v>188523</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2419725383845665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2122587912505632</v>
+        <v>0.2130165967973489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2809882385388312</v>
+        <v>0.2759142954264969</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -1123,19 +1123,19 @@
         <v>157412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>135605</v>
+        <v>136010</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>180110</v>
+        <v>179383</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2579446004674745</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2222107118922568</v>
+        <v>0.2228742768612166</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2951388889713235</v>
+        <v>0.2939470501899719</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>310</v>
@@ -1144,19 +1144,19 @@
         <v>322744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>288129</v>
+        <v>292058</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>355137</v>
+        <v>354560</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2495077977857657</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2227473243036797</v>
+        <v>0.2257846239836318</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2745499562480819</v>
+        <v>0.2741041971846983</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>26357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17651</v>
+        <v>17054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37753</v>
+        <v>36949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03857440561357658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0258328421041845</v>
+        <v>0.02496011427172349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05525407654076046</v>
+        <v>0.05407704051908764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1194,19 +1194,19 @@
         <v>20844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12523</v>
+        <v>13111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31570</v>
+        <v>31091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03415627489774028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02052147225358388</v>
+        <v>0.02148412727847863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05173202357466151</v>
+        <v>0.05094714782200039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -1215,19 +1215,19 @@
         <v>47201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34823</v>
+        <v>35145</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62744</v>
+        <v>62561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03649003098245999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02692077871011714</v>
+        <v>0.02716986536408949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04850658233240091</v>
+        <v>0.04836447980979697</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>491934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>467788</v>
+        <v>467222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>516860</v>
+        <v>513586</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7287343250385599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6929665685246879</v>
+        <v>0.6921267281369522</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7656598132264197</v>
+        <v>0.76081012084641</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>484</v>
@@ -1340,19 +1340,19 @@
         <v>513956</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>489832</v>
+        <v>487929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>539035</v>
+        <v>538734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7269789867501947</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6928559650666656</v>
+        <v>0.6901649131191718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7624521481052832</v>
+        <v>0.7620274337992129</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>951</v>
@@ -1361,19 +1361,19 @@
         <v>1005890</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>973684</v>
+        <v>974325</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1039813</v>
+        <v>1042725</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7278363834121118</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7045332935664855</v>
+        <v>0.7049973710432325</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7523826798328622</v>
+        <v>0.7544894530341183</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>160926</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137601</v>
+        <v>139881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>184388</v>
+        <v>184152</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2383902489855456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2038375257080594</v>
+        <v>0.2072149520946281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2731467755515268</v>
+        <v>0.2727965871996482</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -1411,19 +1411,19 @@
         <v>167435</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143531</v>
+        <v>143750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>190152</v>
+        <v>193066</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2368332870914594</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.203021181403722</v>
+        <v>0.2033306531117171</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.268965949434153</v>
+        <v>0.2730871675051171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>314</v>
@@ -1432,19 +1432,19 @@
         <v>328361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293525</v>
+        <v>291731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357673</v>
+        <v>358673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2375937866142978</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2123876697553257</v>
+        <v>0.2110890553708669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2588029418543372</v>
+        <v>0.2595271044102274</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>22193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13609</v>
+        <v>13354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33097</v>
+        <v>34184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03287542597589438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02016024153876515</v>
+        <v>0.01978283290051131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04902931489381777</v>
+        <v>0.05063855809246267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1482,19 +1482,19 @@
         <v>25584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17345</v>
+        <v>17250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37497</v>
+        <v>37581</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03618772615834589</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02453351374960334</v>
+        <v>0.0243999317140517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05303823058269093</v>
+        <v>0.05315703646834538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>45</v>
@@ -1503,19 +1503,19 @@
         <v>47776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36268</v>
+        <v>35462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62694</v>
+        <v>63998</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0345698299735905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.026242845221099</v>
+        <v>0.02565910489232069</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04536372694448958</v>
+        <v>0.04630721877234675</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>432661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>408461</v>
+        <v>408270</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>456475</v>
+        <v>458258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7051268760488851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6656874963099482</v>
+        <v>0.6653755441368683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7439372873867518</v>
+        <v>0.746843181011249</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>375</v>
@@ -1628,19 +1628,19 @@
         <v>425232</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>400141</v>
+        <v>399738</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448002</v>
+        <v>447823</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.696426568032159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6553343365252337</v>
+        <v>0.6546739070304093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7337192961432937</v>
+        <v>0.7334256214530727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>764</v>
@@ -1649,19 +1649,19 @@
         <v>857893</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>821654</v>
+        <v>820870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>892913</v>
+        <v>889110</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7007873870174975</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.671184735550752</v>
+        <v>0.6705443946524825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7293944954145113</v>
+        <v>0.7262879630354783</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>158196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136603</v>
+        <v>135814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183134</v>
+        <v>181103</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.257819286526101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2226276153086702</v>
+        <v>0.2213419464930651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2984622539781778</v>
+        <v>0.2951521028092552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -1699,19 +1699,19 @@
         <v>160588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137517</v>
+        <v>138222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184656</v>
+        <v>185196</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2630049750428579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2252190617097328</v>
+        <v>0.2263735951477087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3024224574300446</v>
+        <v>0.3033053803411814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>277</v>
@@ -1720,19 +1720,19 @@
         <v>318785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>282882</v>
+        <v>287793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351522</v>
+        <v>351861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2604057740844032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2310779025423609</v>
+        <v>0.2350893070308376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.287147753442808</v>
+        <v>0.2874251005379346</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>22736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14450</v>
+        <v>14567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34895</v>
+        <v>35415</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03705383742501381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0235504387494292</v>
+        <v>0.02374091761469065</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05686936840693446</v>
+        <v>0.05771736179193936</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1770,19 +1770,19 @@
         <v>24771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14630</v>
+        <v>15466</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36996</v>
+        <v>39087</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04056845692498313</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02396021738591101</v>
+        <v>0.02532882405656072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06059105936571151</v>
+        <v>0.06401579565667466</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -1791,19 +1791,19 @@
         <v>47507</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33996</v>
+        <v>34986</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65385</v>
+        <v>65847</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03880683889809923</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02777029518940813</v>
+        <v>0.02857909678735408</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05341125843967996</v>
+        <v>0.05378824471989048</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>278146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256460</v>
+        <v>257117</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299843</v>
+        <v>298661</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6492597164940079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5986390653445289</v>
+        <v>0.6001725413277014</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.69990441035138</v>
+        <v>0.6971453540511763</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>283</v>
@@ -1916,19 +1916,19 @@
         <v>313391</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>291194</v>
+        <v>293674</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>332984</v>
+        <v>333004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7045879082229385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6546833180177958</v>
+        <v>0.6602585867245574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7486377228495342</v>
+        <v>0.7486842087389222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>534</v>
@@ -1937,19 +1937,19 @@
         <v>591537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>561189</v>
+        <v>560828</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619106</v>
+        <v>619021</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6774428046676257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6426870724013745</v>
+        <v>0.6422740714931531</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7090155016417957</v>
+        <v>0.7089182152820948</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>124125</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105166</v>
+        <v>106294</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>145513</v>
+        <v>144922</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.289736844636894</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.245483180982705</v>
+        <v>0.2481161665469018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3396614347981522</v>
+        <v>0.3382817750305855</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -1987,19 +1987,19 @@
         <v>116032</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>96982</v>
+        <v>97412</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>138336</v>
+        <v>136591</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2608722788732406</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2180416851322016</v>
+        <v>0.2190084706094153</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3110171526241341</v>
+        <v>0.3070934603083311</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>223</v>
@@ -2008,19 +2008,19 @@
         <v>240157</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>214246</v>
+        <v>213708</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>268931</v>
+        <v>271796</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2750338048918798</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2453597383860686</v>
+        <v>0.2447436395231972</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3079865139377652</v>
+        <v>0.3112676677862992</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>26134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16651</v>
+        <v>16708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37435</v>
+        <v>39059</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06100343886909808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03886683839917077</v>
+        <v>0.03900020617437845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08738218542207021</v>
+        <v>0.09117200687003611</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2058,19 +2058,19 @@
         <v>15363</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8318</v>
+        <v>9158</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25410</v>
+        <v>25533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03453981290382089</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01870161287941443</v>
+        <v>0.02059048410854874</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05712827747565165</v>
+        <v>0.05740497903024101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2079,19 +2079,19 @@
         <v>41497</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29601</v>
+        <v>30035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56680</v>
+        <v>57278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04752339044049449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03389956788419409</v>
+        <v>0.03439635951184422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06491182303382011</v>
+        <v>0.06559650132171149</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>221634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>203744</v>
+        <v>203982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236662</v>
+        <v>237869</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.724909057003065</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6663927743241707</v>
+        <v>0.6671713933685174</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7740604181517008</v>
+        <v>0.7780076201215412</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>233</v>
@@ -2204,19 +2204,19 @@
         <v>240885</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>223225</v>
+        <v>221475</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>257727</v>
+        <v>257075</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6843919451086293</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6342170884409591</v>
+        <v>0.629246418059206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7322420808351333</v>
+        <v>0.7303920413058226</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>436</v>
@@ -2225,19 +2225,19 @@
         <v>462519</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>436337</v>
+        <v>440488</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>487689</v>
+        <v>487702</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7032265884729358</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6634190928008833</v>
+        <v>0.6697296132027697</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.741494735624729</v>
+        <v>0.7415154714910858</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>67729</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54140</v>
+        <v>52872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84866</v>
+        <v>85126</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2215231521120741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1770765779504187</v>
+        <v>0.1729297749572228</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2775755901743428</v>
+        <v>0.2784263900360697</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -2275,19 +2275,19 @@
         <v>100418</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84053</v>
+        <v>85296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117472</v>
+        <v>120014</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2853039414822054</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2388072743958044</v>
+        <v>0.242339017123799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3337554058527356</v>
+        <v>0.3409802560580126</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -2296,19 +2296,19 @@
         <v>168147</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>145785</v>
+        <v>144958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>193773</v>
+        <v>190857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2556550261199692</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2216548999745791</v>
+        <v>0.2203975098706497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2946175269820671</v>
+        <v>0.2901842697523905</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>16378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9234</v>
+        <v>9729</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26780</v>
+        <v>26242</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05356779088486093</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0302006464717027</v>
+        <v>0.03182173338406119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08759029532199923</v>
+        <v>0.08583079469221828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2346,19 +2346,19 @@
         <v>10666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5858</v>
+        <v>5577</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18505</v>
+        <v>18693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03030411340916532</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01664333230115914</v>
+        <v>0.0158441908897752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0525746617541373</v>
+        <v>0.05311014407626991</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -2367,19 +2367,19 @@
         <v>27044</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17828</v>
+        <v>18682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39280</v>
+        <v>39769</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04111838540709496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02710552191568787</v>
+        <v>0.02840466176703067</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05972166210898519</v>
+        <v>0.06046591857625289</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>184275</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>168739</v>
+        <v>168973</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>197760</v>
+        <v>198225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7434385426628888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6807616403053958</v>
+        <v>0.6817063383521466</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7978459844392422</v>
+        <v>0.799719057971838</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>252</v>
@@ -2492,19 +2492,19 @@
         <v>279526</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>260226</v>
+        <v>261950</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>297144</v>
+        <v>298201</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7242855737103747</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6742770260845458</v>
+        <v>0.6787439011001433</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7699350476341106</v>
+        <v>0.7726725142631177</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>414</v>
@@ -2513,19 +2513,19 @@
         <v>463802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>441288</v>
+        <v>439209</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>486902</v>
+        <v>485378</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7317759397711602</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6962542597106414</v>
+        <v>0.6929742206757926</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7682231300121402</v>
+        <v>0.7658184813523821</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>57261</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44364</v>
+        <v>43524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>72793</v>
+        <v>70602</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2310157854720018</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1789819971004957</v>
+        <v>0.175592938905798</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2936783264145294</v>
+        <v>0.2848356122806563</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>89</v>
@@ -2563,19 +2563,19 @@
         <v>98970</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>82439</v>
+        <v>81623</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>118871</v>
+        <v>116493</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2564427420668107</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2136080930551002</v>
+        <v>0.2114958942921404</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3080073670543399</v>
+        <v>0.3018481164736627</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>141</v>
@@ -2584,19 +2584,19 @@
         <v>156232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>134518</v>
+        <v>134783</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>178383</v>
+        <v>181180</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2464987373968809</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2122395645215095</v>
+        <v>0.2126571382320046</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2814492891800051</v>
+        <v>0.2858614107635959</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>6332</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2166</v>
+        <v>3086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13421</v>
+        <v>12928</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0255456718651094</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008736546598610787</v>
+        <v>0.01244854711353986</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05414713686003346</v>
+        <v>0.05215870034105837</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2634,19 +2634,19 @@
         <v>7438</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3163</v>
+        <v>3217</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14994</v>
+        <v>14809</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01927168422281458</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008194603903474587</v>
+        <v>0.008334591202857025</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03885186901289275</v>
+        <v>0.03837295180060477</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -2655,19 +2655,19 @@
         <v>13770</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7411</v>
+        <v>7329</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22612</v>
+        <v>23155</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02172532283195899</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0116931661354398</v>
+        <v>0.01156341172778889</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03567611775601367</v>
+        <v>0.03653387934844674</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>2426978</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2374976</v>
+        <v>2367698</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2480862</v>
+        <v>2480940</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7125161801688694</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.697249261192701</v>
+        <v>0.6951125853268715</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7283354203327935</v>
+        <v>0.7283583767048603</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2326</v>
@@ -2780,19 +2780,19 @@
         <v>2509543</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2453862</v>
+        <v>2459017</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2563138</v>
+        <v>2571961</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7093596897607507</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6936206327762696</v>
+        <v>0.6950777547539883</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7245090297425106</v>
+        <v>0.7270032250265086</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4595</v>
@@ -2801,19 +2801,19 @@
         <v>4936521</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4858382</v>
+        <v>4854746</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5011183</v>
+        <v>5008549</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7109080357925113</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6996552484485827</v>
+        <v>0.6991316048936388</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7216600486350059</v>
+        <v>0.7212807684096333</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>845083</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>794507</v>
+        <v>792939</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>901405</v>
+        <v>898013</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2481008856469084</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2332524918308294</v>
+        <v>0.2327923033277347</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2646359452724197</v>
+        <v>0.263640058229292</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>843</v>
@@ -2851,19 +2851,19 @@
         <v>909841</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>856449</v>
+        <v>851407</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>963554</v>
+        <v>959296</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2571802222461838</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2420880452281781</v>
+        <v>0.2406630029686966</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2723629713012654</v>
+        <v>0.2711592362373459</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1640</v>
@@ -2872,19 +2872,19 @@
         <v>1754925</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1683535</v>
+        <v>1688952</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1829479</v>
+        <v>1833061</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2527265559976351</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2424457399680307</v>
+        <v>0.243225806558617</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2634631849260347</v>
+        <v>0.2639789709694262</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>134146</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>112299</v>
+        <v>112012</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>159860</v>
+        <v>159295</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03938293418422218</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03296897103849255</v>
+        <v>0.03288475119437773</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04693198731341453</v>
+        <v>0.04676612008281873</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -2922,19 +2922,19 @@
         <v>118374</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>97515</v>
+        <v>98218</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>141905</v>
+        <v>143558</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03346008799306548</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02756394075089345</v>
+        <v>0.02776274701345709</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04011159234779616</v>
+        <v>0.04057889777997421</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>237</v>
@@ -2943,19 +2943,19 @@
         <v>252520</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>218724</v>
+        <v>220709</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>287180</v>
+        <v>286091</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03636540820985366</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03149844076115421</v>
+        <v>0.03178422493183417</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0413568303335216</v>
+        <v>0.04119994528255568</v>
       </c>
     </row>
     <row r="35">
@@ -3290,19 +3290,19 @@
         <v>329418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>309663</v>
+        <v>311536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344160</v>
+        <v>345489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7898975018561615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.742528130999183</v>
+        <v>0.7470181185368853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8252464107552151</v>
+        <v>0.8284336659149779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>306</v>
@@ -3311,19 +3311,19 @@
         <v>299171</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>281215</v>
+        <v>283357</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314345</v>
+        <v>314222</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7699348629315039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7237228636553088</v>
+        <v>0.7292358859314204</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8089855830533633</v>
+        <v>0.8086679330484855</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>615</v>
@@ -3332,19 +3332,19 @@
         <v>628589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>602824</v>
+        <v>603735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>650485</v>
+        <v>650782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7802689541690373</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.748286869377781</v>
+        <v>0.7494167807871488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8074479128489142</v>
+        <v>0.8078171416793052</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>72731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59113</v>
+        <v>58617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89160</v>
+        <v>90916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1743987027565999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.141745615333663</v>
+        <v>0.1405544003204454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2137932094829011</v>
+        <v>0.2180045065821706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -3382,19 +3382,19 @@
         <v>76747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61662</v>
+        <v>61053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93925</v>
+        <v>91602</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1975131306895155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1586895952946449</v>
+        <v>0.1571243814590861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2417206717807536</v>
+        <v>0.2357430876378762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -3403,19 +3403,19 @@
         <v>149478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127756</v>
+        <v>127781</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173786</v>
+        <v>171883</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1855474477923964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1585836085563345</v>
+        <v>0.1586153300912502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.215721190663262</v>
+        <v>0.2133586038489518</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>14890</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8603</v>
+        <v>8528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24170</v>
+        <v>24500</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03570379538723854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02062915423142263</v>
+        <v>0.02044971433439783</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05795699081114052</v>
+        <v>0.05874820733316127</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -3453,19 +3453,19 @@
         <v>12649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6763</v>
+        <v>6883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20332</v>
+        <v>21395</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03255200637898055</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01740446418852885</v>
+        <v>0.01771447628685932</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05232605746435398</v>
+        <v>0.05506242713362598</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -3474,19 +3474,19 @@
         <v>27539</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19012</v>
+        <v>18126</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40193</v>
+        <v>39714</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03418359803856629</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02359953153603115</v>
+        <v>0.02249974181812286</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04989140833262277</v>
+        <v>0.04929714426075581</v>
       </c>
     </row>
     <row r="7">
@@ -3578,19 +3578,19 @@
         <v>430930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405701</v>
+        <v>408150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450254</v>
+        <v>451354</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7325694771922803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6896814426595445</v>
+        <v>0.6938440063362238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7654211929672943</v>
+        <v>0.7672906511194538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -3599,19 +3599,19 @@
         <v>422905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403995</v>
+        <v>401032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>444448</v>
+        <v>442504</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7541227835395307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7204019497108196</v>
+        <v>0.7151187333669329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7925375437181666</v>
+        <v>0.7890714369239428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -3620,19 +3620,19 @@
         <v>853835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>821965</v>
+        <v>824757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880592</v>
+        <v>882391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7430886463967507</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7153527120202537</v>
+        <v>0.717782158159082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7663749578339126</v>
+        <v>0.767941050061562</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>133281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116516</v>
+        <v>114505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>156780</v>
+        <v>155005</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2265738318088593</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1980741130387518</v>
+        <v>0.1946562547689505</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2665218829314641</v>
+        <v>0.2635049196182357</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>122</v>
@@ -3670,19 +3670,19 @@
         <v>119683</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>99149</v>
+        <v>101370</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>136933</v>
+        <v>141318</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2134173789666431</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1768028051995933</v>
+        <v>0.180763366066053</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2441775995688022</v>
+        <v>0.2519969509816086</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>252</v>
@@ -3691,19 +3691,19 @@
         <v>252963</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>228600</v>
+        <v>226709</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>284695</v>
+        <v>282705</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2201527773614259</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1989498157951154</v>
+        <v>0.1973040892120142</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2477691317983257</v>
+        <v>0.2460371029041477</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>24034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15516</v>
+        <v>15462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34915</v>
+        <v>34484</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04085669099886038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0263772122222181</v>
+        <v>0.02628451481330597</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05935443458108984</v>
+        <v>0.0586218509342227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3741,19 +3741,19 @@
         <v>18203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11372</v>
+        <v>11433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28037</v>
+        <v>27093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03245983749382614</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02027920659507948</v>
+        <v>0.02038688373599943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04999607466126721</v>
+        <v>0.04831279386327367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3762,19 +3762,19 @@
         <v>42237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30320</v>
+        <v>31074</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55736</v>
+        <v>55591</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03675857624182343</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02638706217123308</v>
+        <v>0.02704369310196679</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04850636277162436</v>
+        <v>0.04838067605965231</v>
       </c>
     </row>
     <row r="11">
@@ -3866,19 +3866,19 @@
         <v>527607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>505761</v>
+        <v>505932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>547536</v>
+        <v>548616</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.790946930495499</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.758195719965463</v>
+        <v>0.7584524305553801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8208222049616696</v>
+        <v>0.8224414959291084</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>508</v>
@@ -3887,19 +3887,19 @@
         <v>506971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>485696</v>
+        <v>485949</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>526366</v>
+        <v>526052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7711641440727132</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7388026389403343</v>
+        <v>0.739187352973482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8006665639549131</v>
+        <v>0.8001885597288336</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1007</v>
@@ -3908,19 +3908,19 @@
         <v>1034579</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1004523</v>
+        <v>1004160</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1062838</v>
+        <v>1062366</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7811275977310128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7584350641500357</v>
+        <v>0.7581610303921706</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.802464024969353</v>
+        <v>0.8021080807664668</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>119207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100374</v>
+        <v>98689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140995</v>
+        <v>138914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1787053167065631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1504726701021679</v>
+        <v>0.1479463221257962</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2113688075131235</v>
+        <v>0.2082494537196914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>132</v>
@@ -3958,19 +3958,19 @@
         <v>130461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112460</v>
+        <v>111671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151300</v>
+        <v>150676</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1984475436093582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1710651101285966</v>
+        <v>0.1698646379299116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2301457878577775</v>
+        <v>0.2291969756312098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>248</v>
@@ -3979,19 +3979,19 @@
         <v>249668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220144</v>
+        <v>223615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278424</v>
+        <v>277938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.188504517452483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1662130508910225</v>
+        <v>0.1688338817335576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2102159279342147</v>
+        <v>0.2098487134484567</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>20244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12918</v>
+        <v>12507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30414</v>
+        <v>29490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0303477527979378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01936513317165352</v>
+        <v>0.0187499834912442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04559491048692944</v>
+        <v>0.04420851513392723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -4029,19 +4029,19 @@
         <v>19978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13295</v>
+        <v>12346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29830</v>
+        <v>29802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03038831231792864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02022275055314132</v>
+        <v>0.01878000394984672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04537431390874371</v>
+        <v>0.04533232148434528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -4050,19 +4050,19 @@
         <v>40221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30528</v>
+        <v>29173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54601</v>
+        <v>52652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03036788481650416</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02304946078080815</v>
+        <v>0.02202584323638188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04122494890166148</v>
+        <v>0.0397530338764442</v>
       </c>
     </row>
     <row r="15">
@@ -4154,19 +4154,19 @@
         <v>480911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>457624</v>
+        <v>455561</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>501390</v>
+        <v>504016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7495481594566126</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.713252771229377</v>
+        <v>0.7100383211193856</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.781467380099727</v>
+        <v>0.7855592299226175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>471</v>
@@ -4175,19 +4175,19 @@
         <v>504515</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>481920</v>
+        <v>483326</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>526198</v>
+        <v>524991</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7845740948220682</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7494370137624868</v>
+        <v>0.7516229811987376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8182933043078521</v>
+        <v>0.816416675396281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>905</v>
@@ -4196,19 +4196,19 @@
         <v>985426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>953856</v>
+        <v>951734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1014980</v>
+        <v>1017101</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7670807720957773</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7425059156020315</v>
+        <v>0.7408544905698982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7900868122212903</v>
+        <v>0.7917372643820205</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>137439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117652</v>
+        <v>114902</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>160750</v>
+        <v>160477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.214212267956752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1833718391649387</v>
+        <v>0.1790860928307224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2505443462320414</v>
+        <v>0.2501200001984243</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -4246,19 +4246,19 @@
         <v>118616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99186</v>
+        <v>100596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>139370</v>
+        <v>139597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1844600253391195</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1542450524124095</v>
+        <v>0.1564376979601073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.216735773091651</v>
+        <v>0.217088889578386</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -4267,19 +4267,19 @@
         <v>256055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226586</v>
+        <v>227934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284708</v>
+        <v>289032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1993194595415381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1763804990662509</v>
+        <v>0.1774295316984232</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2216242006279943</v>
+        <v>0.2249900566622359</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>23251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14799</v>
+        <v>15520</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34675</v>
+        <v>34991</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03623957258663538</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02306588628354783</v>
+        <v>0.02418985497728767</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05404397280250027</v>
+        <v>0.05453768180256612</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -4317,19 +4317,19 @@
         <v>19912</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11227</v>
+        <v>12305</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30344</v>
+        <v>30423</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03096587983881226</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01745870682791025</v>
+        <v>0.0191362447302424</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04718776687473653</v>
+        <v>0.04731067359886074</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -4338,19 +4338,19 @@
         <v>43164</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31325</v>
+        <v>30820</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59139</v>
+        <v>59681</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03359976836268466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02438388102367016</v>
+        <v>0.02399132423254961</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04603514866920536</v>
+        <v>0.04645746158785464</v>
       </c>
     </row>
     <row r="19">
@@ -4442,19 +4442,19 @@
         <v>358495</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>338553</v>
+        <v>337018</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>377286</v>
+        <v>376712</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7501187035122795</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7083914543726999</v>
+        <v>0.7051789130709983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7894361708387586</v>
+        <v>0.7882346327856518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>317</v>
@@ -4463,19 +4463,19 @@
         <v>361994</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342247</v>
+        <v>342666</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>380665</v>
+        <v>383086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7349600197118399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6948665978053282</v>
+        <v>0.6957173348719476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7728675821068235</v>
+        <v>0.7777829131298201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>637</v>
@@ -4484,19 +4484,19 @@
         <v>720490</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>694181</v>
+        <v>691979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>747841</v>
+        <v>748833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.742425196147786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7153155695418157</v>
+        <v>0.7130468366640157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7706099131960548</v>
+        <v>0.7716316142403878</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>101163</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83427</v>
+        <v>84371</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>120744</v>
+        <v>121701</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2116741628887301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1745642888403509</v>
+        <v>0.1765377111928641</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2526455453236596</v>
+        <v>0.2546487263519506</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -4534,19 +4534,19 @@
         <v>107629</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>89893</v>
+        <v>88532</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>126161</v>
+        <v>125374</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2185193658959309</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1825095864269355</v>
+        <v>0.1797469948406886</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2561447900274535</v>
+        <v>0.2545479704486704</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>183</v>
@@ -4555,19 +4555,19 @@
         <v>208792</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>185251</v>
+        <v>180858</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>237502</v>
+        <v>235066</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2151483180621381</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1908914169218749</v>
+        <v>0.1863640313265534</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2447330515579197</v>
+        <v>0.24222299925461</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>18260</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9475</v>
+        <v>10525</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28117</v>
+        <v>29371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03820713359899036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01982599887631736</v>
+        <v>0.02202197287685062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05883159636637702</v>
+        <v>0.06145641536427646</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4605,19 +4605,19 @@
         <v>22913</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13212</v>
+        <v>14366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35950</v>
+        <v>36674</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04652061439222917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02682503316724255</v>
+        <v>0.02916777776941862</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.072990055225369</v>
+        <v>0.07445873351551757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4626,19 +4626,19 @@
         <v>41173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28837</v>
+        <v>28021</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57349</v>
+        <v>57168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04242648579007594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02971448827053199</v>
+        <v>0.02887407929267779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05909455254437442</v>
+        <v>0.05890839862612669</v>
       </c>
     </row>
     <row r="23">
@@ -4730,19 +4730,19 @@
         <v>253327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>238470</v>
+        <v>236113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>268309</v>
+        <v>267562</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7665879496858518</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7216291901577978</v>
+        <v>0.7144952707281714</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8119244724891557</v>
+        <v>0.8096623209260746</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>261</v>
@@ -4751,19 +4751,19 @@
         <v>276329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>257793</v>
+        <v>258218</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>292837</v>
+        <v>293605</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7355052776401058</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6861672497099103</v>
+        <v>0.6872980498917766</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7794429212047042</v>
+        <v>0.7814877956764061</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>506</v>
@@ -4772,19 +4772,19 @@
         <v>529657</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>501089</v>
+        <v>505961</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>551571</v>
+        <v>551929</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7500509981359649</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7095955749915447</v>
+        <v>0.7164949495431457</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7810841474158534</v>
+        <v>0.781590480836625</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>66488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51643</v>
+        <v>53007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80807</v>
+        <v>82529</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2011970806818512</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1562750250953694</v>
+        <v>0.1604041237567409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2445268179431599</v>
+        <v>0.2497380139199656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -4822,19 +4822,19 @@
         <v>87296</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71660</v>
+        <v>71211</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105555</v>
+        <v>105622</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2323558000128872</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1907367602608824</v>
+        <v>0.1895434415933785</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2809554842695455</v>
+        <v>0.2811331776705785</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -4843,19 +4843,19 @@
         <v>153784</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132765</v>
+        <v>133584</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>179426</v>
+        <v>179290</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2177744917607803</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1880102155352324</v>
+        <v>0.1891698380753677</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2540867740855061</v>
+        <v>0.25389351348987</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>10646</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5612</v>
+        <v>5690</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18253</v>
+        <v>18515</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03221496963229704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01698142081621113</v>
+        <v>0.01721891217353558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05523391325938345</v>
+        <v>0.05602751269161727</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -4893,19 +4893,19 @@
         <v>12075</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6505</v>
+        <v>6278</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21018</v>
+        <v>21556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03213892234700699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.017314610231883</v>
+        <v>0.01671107773715429</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05594294135146868</v>
+        <v>0.05737677344839058</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -4914,19 +4914,19 @@
         <v>22720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14376</v>
+        <v>14749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33984</v>
+        <v>35837</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0321745101032549</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02035807663821798</v>
+        <v>0.02088599244522054</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04812535507407971</v>
+        <v>0.05074938062319271</v>
       </c>
     </row>
     <row r="27">
@@ -5018,19 +5018,19 @@
         <v>195444</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>182458</v>
+        <v>182463</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>207140</v>
+        <v>206097</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7685696683537092</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7175021328858125</v>
+        <v>0.7175222027354373</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8145627322018713</v>
+        <v>0.8104594540947714</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>231</v>
@@ -5039,19 +5039,19 @@
         <v>304621</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>284764</v>
+        <v>281690</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>322583</v>
+        <v>321987</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7687064144066481</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7185986165572279</v>
+        <v>0.710840914340525</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8140349154635661</v>
+        <v>0.8125306247516051</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>460</v>
@@ -5060,19 +5060,19 @@
         <v>500065</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>477003</v>
+        <v>473992</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>521786</v>
+        <v>522583</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7686529630789449</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7332043584487242</v>
+        <v>0.7285765825871351</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8020405743731499</v>
+        <v>0.8032663083815111</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>52604</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>41052</v>
+        <v>41651</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65230</v>
+        <v>65767</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2068627417571093</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1614325155776384</v>
+        <v>0.1637891161511416</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2565110985007391</v>
+        <v>0.2586226942878405</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -5110,19 +5110,19 @@
         <v>78016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61913</v>
+        <v>62587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97055</v>
+        <v>99289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1968727614851046</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1562373799979552</v>
+        <v>0.1579380584323057</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2449175443800125</v>
+        <v>0.2505544714848647</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>120</v>
@@ -5131,19 +5131,19 @@
         <v>130621</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>110796</v>
+        <v>109191</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>153732</v>
+        <v>155577</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2007776472042266</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1703048510348468</v>
+        <v>0.1678379815132419</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2363024712402166</v>
+        <v>0.2391389733669948</v>
       </c>
     </row>
     <row r="30">
@@ -5160,19 +5160,19 @@
         <v>6247</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2459</v>
+        <v>2514</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12926</v>
+        <v>11870</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02456758988918149</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009671506505363725</v>
+        <v>0.009887792157492427</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05083031635778923</v>
+        <v>0.04667790403409185</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -5181,19 +5181,19 @@
         <v>13640</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6605</v>
+        <v>7280</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22861</v>
+        <v>24895</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03442082410824724</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0166663741187545</v>
+        <v>0.01837005081071263</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05768956834089171</v>
+        <v>0.06282300862859848</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -5202,19 +5202,19 @@
         <v>19888</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12077</v>
+        <v>12433</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32800</v>
+        <v>32008</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03056938971682846</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0185643533425512</v>
+        <v>0.01911086297253461</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05041726122499486</v>
+        <v>0.04920040746140751</v>
       </c>
     </row>
     <row r="31">
@@ -5306,19 +5306,19 @@
         <v>2576134</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2524021</v>
+        <v>2526255</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2620936</v>
+        <v>2626530</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.762933090382628</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7474995915107464</v>
+        <v>0.7481611235077689</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7762012651922908</v>
+        <v>0.777857870607117</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2529</v>
@@ -5327,19 +5327,19 @@
         <v>2676505</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2625978</v>
+        <v>2623490</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2728191</v>
+        <v>2729567</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7615993079400444</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7472217051422017</v>
+        <v>0.7465137650495378</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7763064075225442</v>
+        <v>0.7766979750675779</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4977</v>
@@ -5348,19 +5348,19 @@
         <v>5252640</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5178387</v>
+        <v>5176604</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5325083</v>
+        <v>5320428</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7622528725914741</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7514775178680562</v>
+        <v>0.7512187794519716</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7727657252626221</v>
+        <v>0.7720901815336111</v>
       </c>
     </row>
     <row r="33">
@@ -5377,19 +5377,19 @@
         <v>682913</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>642098</v>
+        <v>637988</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>732632</v>
+        <v>730939</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2022475199120878</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1901601761468751</v>
+        <v>0.1889428634260032</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2169720351652262</v>
+        <v>0.2164707092924227</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>671</v>
@@ -5398,19 +5398,19 @@
         <v>718447</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>671560</v>
+        <v>667423</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>768298</v>
+        <v>768258</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2044340899926015</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1910924710427391</v>
+        <v>0.1899151831220894</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2186190229197416</v>
+        <v>0.2186078787320696</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1325</v>
@@ -5419,19 +5419,19 @@
         <v>1401360</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1328700</v>
+        <v>1330378</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1465644</v>
+        <v>1473593</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2033626522026951</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1928184385270017</v>
+        <v>0.1930618623512411</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2126914434445805</v>
+        <v>0.2138448898156615</v>
       </c>
     </row>
     <row r="34">
@@ -5448,19 +5448,19 @@
         <v>117572</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>97630</v>
+        <v>98605</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>139882</v>
+        <v>141456</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03481938970528423</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0289134455982817</v>
+        <v>0.02920224421283763</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04142664327224954</v>
+        <v>0.04189283501976057</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>110</v>
@@ -5469,19 +5469,19 @@
         <v>119370</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>96831</v>
+        <v>99544</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>142817</v>
+        <v>146077</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03396660206735412</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02755316337589103</v>
+        <v>0.02832537594458865</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.040638422704732</v>
+        <v>0.04156616417960877</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>222</v>
@@ -5490,19 +5490,19 @@
         <v>236941</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>205514</v>
+        <v>206654</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>268337</v>
+        <v>268076</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03438447520583074</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02982378766102469</v>
+        <v>0.02998925571051489</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0389404960158222</v>
+        <v>0.03890261255641407</v>
       </c>
     </row>
     <row r="35">
@@ -5837,19 +5837,19 @@
         <v>333090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>307835</v>
+        <v>305890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>356898</v>
+        <v>355893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8168116893127142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7548805795591849</v>
+        <v>0.7501102525264219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8751937827642304</v>
+        <v>0.8727288490773915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -5858,19 +5858,19 @@
         <v>272066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242374</v>
+        <v>248006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290582</v>
+        <v>295036</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7505027458760314</v>
+        <v>0.7505027458760315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6685948946313057</v>
+        <v>0.684132803518864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8015782872184741</v>
+        <v>0.813865609450699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>302</v>
@@ -5879,19 +5879,19 @@
         <v>605156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>569013</v>
+        <v>569368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>637845</v>
+        <v>636982</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7856061475220507</v>
+        <v>0.7856061475220505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7386856886406299</v>
+        <v>0.7391467737912401</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8280421861448937</v>
+        <v>0.8269213448307569</v>
       </c>
     </row>
     <row r="5">
@@ -5908,19 +5908,19 @@
         <v>47080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28951</v>
+        <v>30674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69524</v>
+        <v>73670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1154511330677236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07099412930496685</v>
+        <v>0.0752200542261906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.170489620003074</v>
+        <v>0.1806559448073205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -5929,19 +5929,19 @@
         <v>61668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44247</v>
+        <v>41891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86625</v>
+        <v>82802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1701130471552963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.122055496047089</v>
+        <v>0.1155570949571989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.238958974810018</v>
+        <v>0.2284108296405012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -5950,19 +5950,19 @@
         <v>108748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81223</v>
+        <v>82965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>139254</v>
+        <v>139925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1411754857117408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1054429156511954</v>
+        <v>0.107704056277043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1807783127962752</v>
+        <v>0.1816492458354325</v>
       </c>
     </row>
     <row r="6">
@@ -5979,19 +5979,19 @@
         <v>27623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14448</v>
+        <v>13479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46530</v>
+        <v>47127</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06773717761956224</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03542919916151568</v>
+        <v>0.03305395913891618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1141013691772966</v>
+        <v>0.1155660347346527</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -6000,19 +6000,19 @@
         <v>28778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17504</v>
+        <v>16175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47470</v>
+        <v>45417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07938420696867213</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04828434480721968</v>
+        <v>0.04462000050719339</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1309476774948644</v>
+        <v>0.1252840896686898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -6021,19 +6021,19 @@
         <v>56400</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37199</v>
+        <v>37762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82755</v>
+        <v>82200</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07321836676620866</v>
+        <v>0.07321836676620863</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04829067344671938</v>
+        <v>0.04902272607594119</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1074316014195424</v>
+        <v>0.1067108343379845</v>
       </c>
     </row>
     <row r="7">
@@ -6125,19 +6125,19 @@
         <v>395240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>375033</v>
+        <v>370119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415417</v>
+        <v>414843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.828786333530543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7864150191897671</v>
+        <v>0.7761099179762302</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8710953347735324</v>
+        <v>0.869891549207412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -6146,19 +6146,19 @@
         <v>410437</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>391142</v>
+        <v>392376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>428549</v>
+        <v>427523</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8180387608070577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7795814828979901</v>
+        <v>0.7820406516307028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8541377211734981</v>
+        <v>0.8520917773195417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>631</v>
@@ -6167,19 +6167,19 @@
         <v>805677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>776189</v>
+        <v>773469</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>831995</v>
+        <v>831081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.823276133594502</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7931444880182235</v>
+        <v>0.7903648323767548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8501687936025022</v>
+        <v>0.8492347854439729</v>
       </c>
     </row>
     <row r="9">
@@ -6196,19 +6196,19 @@
         <v>53733</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38248</v>
+        <v>35890</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71920</v>
+        <v>73408</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1126735868178041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08020390885139307</v>
+        <v>0.0752591685397261</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1508105905166447</v>
+        <v>0.1539305296216705</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -6217,19 +6217,19 @@
         <v>64083</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50504</v>
+        <v>50123</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>81108</v>
+        <v>80188</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1277236769997522</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1006600762021889</v>
+        <v>0.09990031022453234</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1616558849509149</v>
+        <v>0.1598216617922594</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>89</v>
@@ -6238,19 +6238,19 @@
         <v>117816</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95592</v>
+        <v>96495</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>144606</v>
+        <v>146480</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1203896551889227</v>
+        <v>0.1203896551889228</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09768048251940133</v>
+        <v>0.09860286666927567</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1477644482983243</v>
+        <v>0.1496797160809659</v>
       </c>
     </row>
     <row r="10">
@@ -6267,19 +6267,19 @@
         <v>27917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16810</v>
+        <v>17571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43678</v>
+        <v>44697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05854007965165286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03524913609632822</v>
+        <v>0.03684559557463762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09158999384951576</v>
+        <v>0.09372573424911766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -6288,19 +6288,19 @@
         <v>27213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17968</v>
+        <v>18192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39143</v>
+        <v>40259</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05423756219318993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0358109438410295</v>
+        <v>0.03625828880052475</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0780159471845879</v>
+        <v>0.08023933479760317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6309,19 +6309,19 @@
         <v>55130</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40654</v>
+        <v>40651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71655</v>
+        <v>75054</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0563342112165752</v>
+        <v>0.05633421121657521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04154173159138643</v>
+        <v>0.04153874390253507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07322068437279872</v>
+        <v>0.07669374614674694</v>
       </c>
     </row>
     <row r="11">
@@ -6413,19 +6413,19 @@
         <v>509926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>489394</v>
+        <v>491317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>528461</v>
+        <v>529699</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8320117932448112</v>
+        <v>0.8320117932448111</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.798511717635178</v>
+        <v>0.8016484357842641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8622548524336802</v>
+        <v>0.8642738131734946</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>712</v>
@@ -6434,19 +6434,19 @@
         <v>518994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>501889</v>
+        <v>502339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>534996</v>
+        <v>534837</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8347843641855881</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8072712819420236</v>
+        <v>0.8079949447064128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8605240288961575</v>
+        <v>0.8602683725355</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1164</v>
@@ -6455,19 +6455,19 @@
         <v>1028920</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1001167</v>
+        <v>1000645</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1053144</v>
+        <v>1052604</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8334079909295141</v>
+        <v>0.8334079909295143</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8109289253125909</v>
+        <v>0.8105058820645457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8530296888258964</v>
+        <v>0.8525922596652351</v>
       </c>
     </row>
     <row r="13">
@@ -6484,19 +6484,19 @@
         <v>65738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51049</v>
+        <v>48984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84081</v>
+        <v>81425</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1072610862052757</v>
+        <v>0.1072610862052756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08329259830171609</v>
+        <v>0.07992365505122531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1371893685638119</v>
+        <v>0.1328555675960486</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -6505,19 +6505,19 @@
         <v>70778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56821</v>
+        <v>57261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85115</v>
+        <v>84137</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1138448793575387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0913943333706336</v>
+        <v>0.09210188032791163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.136904604394492</v>
+        <v>0.1353320089443618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -6526,19 +6526,19 @@
         <v>136517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116648</v>
+        <v>116371</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160580</v>
+        <v>159192</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1105765204906751</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09448278933820593</v>
+        <v>0.09425883327553894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1300668391627837</v>
+        <v>0.1289428536366367</v>
       </c>
     </row>
     <row r="14">
@@ -6555,19 +6555,19 @@
         <v>37219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26067</v>
+        <v>25072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50030</v>
+        <v>51586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06072712054991315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04253199792082564</v>
+        <v>0.04090885491325536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08163137220080735</v>
+        <v>0.08416878496201216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -6576,19 +6576,19 @@
         <v>31938</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23345</v>
+        <v>23899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42225</v>
+        <v>42980</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05137075645687319</v>
+        <v>0.05137075645687318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03754920191509799</v>
+        <v>0.03844061269133394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06791827577797467</v>
+        <v>0.06913235569639549</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -6597,19 +6597,19 @@
         <v>69156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53665</v>
+        <v>54068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86574</v>
+        <v>86232</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05601548857981062</v>
+        <v>0.05601548857981063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04346799191174561</v>
+        <v>0.04379419893245724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07012363545801759</v>
+        <v>0.06984643667086793</v>
       </c>
     </row>
     <row r="15">
@@ -6701,19 +6701,19 @@
         <v>573767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>553612</v>
+        <v>550805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>593314</v>
+        <v>594054</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8202310323301099</v>
+        <v>0.8202310323301096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7914185070094618</v>
+        <v>0.7874058554463227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8481745396935931</v>
+        <v>0.849231946807532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>955</v>
@@ -6722,19 +6722,19 @@
         <v>608943</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>591712</v>
+        <v>591024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>627093</v>
+        <v>625878</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8303140805310364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8068184393362742</v>
+        <v>0.8058811445968023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8550619945938809</v>
+        <v>0.8534046918567456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1504</v>
@@ -6743,19 +6743,19 @@
         <v>1182710</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1156573</v>
+        <v>1157135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1207911</v>
+        <v>1208194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8253917221826975</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.807150798690359</v>
+        <v>0.8075431963204001</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8429790597930271</v>
+        <v>0.8431765040182024</v>
       </c>
     </row>
     <row r="17">
@@ -6772,19 +6772,19 @@
         <v>103200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84786</v>
+        <v>84928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121630</v>
+        <v>124794</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1475297274969826</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1212060408914035</v>
+        <v>0.1214085122797949</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1738768770012003</v>
+        <v>0.1783996976379643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -6793,19 +6793,19 @@
         <v>97273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81564</v>
+        <v>82480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112752</v>
+        <v>114288</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1326348068770969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1112153038061931</v>
+        <v>0.1124640907514862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1537410263665367</v>
+        <v>0.1558354614653125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>237</v>
@@ -6814,19 +6814,19 @@
         <v>200473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178277</v>
+        <v>176265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>225758</v>
+        <v>223684</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1399062326800996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1244164796169534</v>
+        <v>0.1230122986154978</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1575522173211397</v>
+        <v>0.1561051933195307</v>
       </c>
     </row>
     <row r="18">
@@ -6843,19 +6843,19 @@
         <v>22552</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13989</v>
+        <v>14276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34539</v>
+        <v>34021</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03223924017290773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01999756581853905</v>
+        <v>0.02040769694603678</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04937481159757583</v>
+        <v>0.04863462670506565</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -6864,19 +6864,19 @@
         <v>27173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20038</v>
+        <v>20276</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37062</v>
+        <v>36487</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03705111259186676</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02732209323063841</v>
+        <v>0.02764759093206837</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05053505984360931</v>
+        <v>0.04975174205046416</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -6885,19 +6885,19 @@
         <v>49725</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37277</v>
+        <v>38263</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>63296</v>
+        <v>64190</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03470204513720285</v>
+        <v>0.03470204513720286</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02601506595999147</v>
+        <v>0.02670270975841522</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04417314851209157</v>
+        <v>0.04479685812287994</v>
       </c>
     </row>
     <row r="19">
@@ -6989,19 +6989,19 @@
         <v>509299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>491383</v>
+        <v>489847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>526621</v>
+        <v>526788</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.835811936978094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8064102202959983</v>
+        <v>0.8038897989298164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8642396429509246</v>
+        <v>0.8645129510899118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>811</v>
@@ -7010,19 +7010,19 @@
         <v>483774</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>466137</v>
+        <v>467353</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>497841</v>
+        <v>497904</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7973275204509219</v>
+        <v>0.7973275204509217</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7682594224224946</v>
+        <v>0.7702643833955393</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8205126471032307</v>
+        <v>0.8206169612908861</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1369</v>
@@ -7031,19 +7031,19 @@
         <v>993072</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>968192</v>
+        <v>967130</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1016492</v>
+        <v>1015369</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8166109079667636</v>
+        <v>0.8166109079667637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7961515675630897</v>
+        <v>0.7952783865151731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8358691849815105</v>
+        <v>0.8349458264866834</v>
       </c>
     </row>
     <row r="21">
@@ -7060,19 +7060,19 @@
         <v>80506</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>64960</v>
+        <v>65912</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>97060</v>
+        <v>99834</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1321191204508712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.106605910566474</v>
+        <v>0.108168351840417</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1592857112911149</v>
+        <v>0.1638372388671226</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>152</v>
@@ -7081,19 +7081,19 @@
         <v>98970</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>84599</v>
+        <v>86309</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>113151</v>
+        <v>113275</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1631165143711905</v>
+        <v>0.1631165143711904</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1394312536998291</v>
+        <v>0.1422490480882339</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1864893152846089</v>
+        <v>0.1866927281988568</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>235</v>
@@ -7102,19 +7102,19 @@
         <v>179476</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>158823</v>
+        <v>159003</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>202122</v>
+        <v>202361</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.147584649453226</v>
+        <v>0.1475846494532259</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1306015246498088</v>
+        <v>0.1307490477311128</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1662061249198412</v>
+        <v>0.1664030918249338</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7131,19 @@
         <v>19541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12350</v>
+        <v>12371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29363</v>
+        <v>28338</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03206894257103481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02026756105998375</v>
+        <v>0.0203017484857147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04818729679309001</v>
+        <v>0.0465050518677922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -7152,19 +7152,19 @@
         <v>24000</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17348</v>
+        <v>17396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33199</v>
+        <v>32262</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03955596517788773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02859238426580316</v>
+        <v>0.02867045003230377</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05471683090081363</v>
+        <v>0.05317281560796777</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -7173,19 +7173,19 @@
         <v>43541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33201</v>
+        <v>33474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55681</v>
+        <v>56113</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03580444258001031</v>
+        <v>0.0358044425800103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02730123250217573</v>
+        <v>0.02752596702543136</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04578688962777468</v>
+        <v>0.04614178713404553</v>
       </c>
     </row>
     <row r="23">
@@ -7277,19 +7277,19 @@
         <v>343615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>330860</v>
+        <v>331463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>354841</v>
+        <v>353610</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8510662137278023</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8194739737087658</v>
+        <v>0.8209673185039502</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8788699745362187</v>
+        <v>0.8758215401875418</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>692</v>
@@ -7298,19 +7298,19 @@
         <v>362091</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>349252</v>
+        <v>349765</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>373661</v>
+        <v>372742</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8280242821086322</v>
+        <v>0.8280242821086321</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7986649678606451</v>
+        <v>0.7998373734635815</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8544816470805149</v>
+        <v>0.8523819498966126</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1173</v>
@@ -7319,19 +7319,19 @@
         <v>705706</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>688762</v>
+        <v>688716</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>722305</v>
+        <v>722318</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8390856829210488</v>
+        <v>0.8390856829210489</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8189389944472938</v>
+        <v>0.8188844702324242</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8588217687950583</v>
+        <v>0.858837275289753</v>
       </c>
     </row>
     <row r="25">
@@ -7348,19 +7348,19 @@
         <v>44174</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34724</v>
+        <v>35040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54264</v>
+        <v>55799</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1094098668395017</v>
+        <v>0.1094098668395016</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08600484808246532</v>
+        <v>0.08678668357967537</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1344011000101335</v>
+        <v>0.138203461125643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -7369,19 +7369,19 @@
         <v>60033</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50071</v>
+        <v>49121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71519</v>
+        <v>69982</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1372831697010253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1145025768787793</v>
+        <v>0.1123292188660175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1635485791552046</v>
+        <v>0.1600348535424494</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -7390,19 +7390,19 @@
         <v>104207</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89107</v>
+        <v>88876</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>118182</v>
+        <v>120052</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1239024436398177</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1059477882536459</v>
+        <v>0.1056732281738597</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1405185482225475</v>
+        <v>0.1427417733578641</v>
       </c>
     </row>
     <row r="26">
@@ -7419,19 +7419,19 @@
         <v>15958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10692</v>
+        <v>10866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23891</v>
+        <v>24428</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03952391943269609</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02648138854800162</v>
+        <v>0.02691410404884376</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05917284573923032</v>
+        <v>0.06050402627281491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -7440,19 +7440,19 @@
         <v>15171</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10187</v>
+        <v>10259</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21835</v>
+        <v>21414</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03469254819034243</v>
+        <v>0.03469254819034242</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02329535080853842</v>
+        <v>0.0234602602703732</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0499317071702565</v>
+        <v>0.04896946018190179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>49</v>
@@ -7461,19 +7461,19 @@
         <v>31129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23256</v>
+        <v>23869</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41635</v>
+        <v>40584</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.03701187343913344</v>
+        <v>0.03701187343913345</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02765090507409459</v>
+        <v>0.02838046447550714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04950353681518131</v>
+        <v>0.04825416732864243</v>
       </c>
     </row>
     <row r="27">
@@ -7565,19 +7565,19 @@
         <v>261416</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>248623</v>
+        <v>249941</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>270773</v>
+        <v>270858</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8438904779430585</v>
+        <v>0.8438904779430583</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8025912305378184</v>
+        <v>0.8068462607989457</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.874096354136406</v>
+        <v>0.8743712001304792</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>737</v>
@@ -7586,19 +7586,19 @@
         <v>380185</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>368880</v>
+        <v>365871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>392870</v>
+        <v>391717</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.823582004480185</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7990921684620097</v>
+        <v>0.7925746577166022</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8510603084168131</v>
+        <v>0.8485633019809027</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1128</v>
@@ -7607,19 +7607,19 @@
         <v>641601</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>625441</v>
+        <v>623108</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>656352</v>
+        <v>656097</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8317373845392166</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8107885117742987</v>
+        <v>0.8077634625022178</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8508594379009594</v>
+        <v>0.8505281073478848</v>
       </c>
     </row>
     <row r="29">
@@ -7636,19 +7636,19 @@
         <v>40736</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31891</v>
+        <v>31458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52885</v>
+        <v>51595</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1315002919879086</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1029485308100058</v>
+        <v>0.1015508684017903</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1707215735601983</v>
+        <v>0.1665574652380257</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -7657,19 +7657,19 @@
         <v>64514</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52973</v>
+        <v>53697</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75492</v>
+        <v>76645</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1397546680781915</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1147533285113949</v>
+        <v>0.1163211269486517</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1635357042560575</v>
+        <v>0.1660340697428648</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>166</v>
@@ -7678,19 +7678,19 @@
         <v>105250</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92519</v>
+        <v>90764</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>122350</v>
+        <v>122088</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1364399150373238</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1199367013231972</v>
+        <v>0.1176617801986019</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1586079971547221</v>
+        <v>0.1582680828387848</v>
       </c>
     </row>
     <row r="30">
@@ -7707,19 +7707,19 @@
         <v>7623</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4125</v>
+        <v>3869</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13645</v>
+        <v>13023</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02460923006903301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01331508114028993</v>
+        <v>0.01249001672360445</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.044049279604596</v>
+        <v>0.04204147402647902</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -7728,19 +7728,19 @@
         <v>16925</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12007</v>
+        <v>11595</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24768</v>
+        <v>23925</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03666332744162341</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02601132410923795</v>
+        <v>0.0251167931434251</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05365367276387462</v>
+        <v>0.05182783856370448</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -7749,19 +7749,19 @@
         <v>24548</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18305</v>
+        <v>17529</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33615</v>
+        <v>32594</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03182270042345958</v>
+        <v>0.03182270042345957</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02373001525378179</v>
+        <v>0.02272336838954269</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04357637270332285</v>
+        <v>0.04225317980833557</v>
       </c>
     </row>
     <row r="31">
@@ -7853,19 +7853,19 @@
         <v>2926353</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2875328</v>
+        <v>2872282</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2973208</v>
+        <v>2972460</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8313614763680242</v>
+        <v>0.831361476368024</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8168655812059036</v>
+        <v>0.8160002403996081</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8446727826651875</v>
+        <v>0.8444600752028508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4447</v>
@@ -7874,19 +7874,19 @@
         <v>3036490</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2994553</v>
+        <v>2990335</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3079951</v>
+        <v>3078856</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8151635890701638</v>
+        <v>0.8151635890701637</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8039052685931314</v>
+        <v>0.8027729949919615</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8268308604743229</v>
+        <v>0.8265368402134564</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7271</v>
@@ -7895,19 +7895,19 @@
         <v>5962844</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5883123</v>
+        <v>5894034</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6027095</v>
+        <v>6028079</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8230333084672958</v>
+        <v>0.8230333084672959</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8120295889081935</v>
+        <v>0.8135356193427661</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8319016724129434</v>
+        <v>0.8320374172495986</v>
       </c>
     </row>
     <row r="33">
@@ -7924,19 +7924,19 @@
         <v>435167</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>395526</v>
+        <v>396628</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>479564</v>
+        <v>482248</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1236286678695392</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1123669678639861</v>
+        <v>0.1126799395777273</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1362415400567086</v>
+        <v>0.1370041353140567</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>691</v>
@@ -7945,19 +7945,19 @@
         <v>517320</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>478456</v>
+        <v>480258</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>555159</v>
+        <v>557839</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1388775743065849</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.128444379339386</v>
+        <v>0.1289281668658604</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1490356235089779</v>
+        <v>0.1497551459072106</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1094</v>
@@ -7966,19 +7966,19 @@
         <v>952487</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>891423</v>
+        <v>895342</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1018778</v>
+        <v>1014750</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1314689158460138</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1230404649158835</v>
+        <v>0.123581409258676</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1406187891380551</v>
+        <v>0.1400629143140847</v>
       </c>
     </row>
     <row r="34">
@@ -7995,19 +7995,19 @@
         <v>158433</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>131108</v>
+        <v>130220</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>188104</v>
+        <v>189027</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.04500985576243664</v>
+        <v>0.04500985576243663</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03724708621957166</v>
+        <v>0.03699486002208777</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05343947107493113</v>
+        <v>0.05370148303831883</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>211</v>
@@ -8016,19 +8016,19 @@
         <v>171197</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>148567</v>
+        <v>149372</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>198648</v>
+        <v>197246</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.04595883662325134</v>
+        <v>0.04595883662325133</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03988359875986132</v>
+        <v>0.04009971295144013</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05332821443954092</v>
+        <v>0.05295177105634827</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>347</v>
@@ -8037,19 +8037,19 @@
         <v>329630</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>291431</v>
+        <v>293278</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>371921</v>
+        <v>369770</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.04549777568669035</v>
+        <v>0.04549777568669037</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04022529488135361</v>
+        <v>0.04048029251754316</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0513350956481524</v>
+        <v>0.05103820885631264</v>
       </c>
     </row>
     <row r="35">
